--- a/data/trans_dic/P52_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 67,63</t>
+          <t>3,58; 12,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,64; 74,08</t>
+          <t>5,17; 15,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 68,77</t>
+          <t>6,79; 35,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,72; 75,82</t>
+          <t>5,64; 13,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 62,1</t>
+          <t>11,48; 21,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 53,08</t>
+          <t>7,79; 16,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,04; 68,93</t>
+          <t>5,81; 11,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,38; 63,22</t>
+          <t>9,39; 16,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 57,59</t>
+          <t>8,46; 22,98</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,91%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,26; 77,24</t>
+          <t>4,58; 15,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,51; 80,41</t>
+          <t>10,33; 24,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 53,65</t>
+          <t>3,06; 13,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 66,46</t>
+          <t>4,77; 14,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,11; 72,53</t>
+          <t>9,18; 19,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,54; 71,84</t>
+          <t>6,14; 15,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,51; 66,99</t>
+          <t>5,74; 13,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,33; 72,44</t>
+          <t>10,66; 19,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,04; 55,89</t>
+          <t>5,65; 12,73</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 80,03</t>
+          <t>2,22; 26,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,56; 100,0</t>
+          <t>2,62; 28,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 100,0</t>
+          <t>2,02; 28,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 63,5</t>
+          <t>2,13; 18,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,78; 92,1</t>
+          <t>10,1; 36,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,26; 91,79</t>
+          <t>7,25; 31,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 61,72</t>
+          <t>2,65; 16,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,33; 90,6</t>
+          <t>8,89; 27,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,87; 90,12</t>
+          <t>5,83; 23,33</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,81; 67,04</t>
+          <t>5,61; 11,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,33; 73,59</t>
+          <t>8,72; 16,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,76; 57,2</t>
+          <t>6,58; 21,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,32; 63,99</t>
+          <t>6,09; 12,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 64,13</t>
+          <t>12,09; 19,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 58,56</t>
+          <t>8,29; 14,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,74; 62,91</t>
+          <t>6,56; 10,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,6; 66,39</t>
+          <t>11,48; 16,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 54,56</t>
+          <t>8,77; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32073</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56703</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>47254</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>66158</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45114</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>79328</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99603</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15403; 54706</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18932; 55733</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25859; 133561</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28704; 68739</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48339; 90077</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31748; 66068</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54534; 108765</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73904; 131724</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66721; 181136</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31289</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52198</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22092</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36741</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45920</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34524</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68029</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98118</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56616</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16472; 54694</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32874; 78921</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9860; 43460</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20273; 59691</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31065; 66897</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20560; 52631</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45064; 102470</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>69984; 128814</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37186; 83711</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9399</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9875</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8024</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7127</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16588</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13877</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16525</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26463</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21901</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2260; 27081</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2088; 22920</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1726; 24639</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2152; 18743</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8233; 29462</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5986; 25683</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5374; 34036</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14319; 43956</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9801; 39225</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>72760</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>95518</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>86820</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>91122</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>128666</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>93515</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>163882</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>224184</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>180335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50009; 106902</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66635; 127380</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51886; 173448</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63001; 126611</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101668; 162233</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>68363; 118155</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>126290; 210184</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>184295; 270637</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>141512; 285836</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>